--- a/RunAndHide-Killer.xlsx
+++ b/RunAndHide-Killer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\board-games\DBD-CCG\Cards\2023-11-15-Redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2114FB1D-4D77-460B-8A47-36714C93614F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30FB18-2BC5-4A42-A7AF-A86273914A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9587CB89-1C02-4FBB-824B-369E19945BA2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="214">
   <si>
     <t>Name</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>C:\Development\board-games\DBD-CCG\Cards\Images2\Neutral\final\hatch.png</t>
+  </si>
+  <si>
+    <t>Memento Mori</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images2\Killer\final\memento-mori.png</t>
+  </si>
+  <si>
+    <t>Remove target injured Survivor from the game.</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AA4AE0-DCD6-4B27-AC6F-9B859FF4226D}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,6 +3143,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="I1:I59" xr:uid="{66AA4AE0-DCD6-4B27-AC6F-9B859FF4226D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">

--- a/RunAndHide-Killer.xlsx
+++ b/RunAndHide-Killer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\board-games\DBD-CCG\Cards\2023-11-15-Redesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C30FB18-2BC5-4A42-A7AF-A86273914A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F157B36-6BB2-44C0-AD7E-DDC757A933E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9587CB89-1C02-4FBB-824B-369E19945BA2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$I$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,9 +116,6 @@
     <t>C:\Development\board-games\DBD-CCG\Cards\Images\Killer\final\corrupt.jpg</t>
   </si>
   <si>
-    <t>Remove Corrupt intervention from the game with 2 time counters on it;Generators can't have progress counters added to them as long as Corrupt intervention has a time counter on it;At the start of your Ready phase remove a time counter from Corrupt intervention. If there are no more time counters on Corrupt intervention Consume it.</t>
-  </si>
-  <si>
     <t>Perk</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Joy of the hunt</t>
   </si>
   <si>
-    <t>When a Survivor is injured this turn, MOVE target Killer Character.</t>
-  </si>
-  <si>
     <t>Surprise Event</t>
   </si>
   <si>
@@ -176,69 +170,36 @@
     <t>Fearmonger</t>
   </si>
   <si>
-    <t>Remove Fearmonger from the game with 2 time counters on it. When a progress counter is added to a Generator in an adjacent zone to target Killer Character, EXHAUST all Survivor Character's in that zone then remove a time counter from Fearmonger. If there are no more time counters on Fearmonger Consume it.</t>
-  </si>
-  <si>
     <t>C:\Development\board-games\DBD-CCG\Cards\Images\Killer\final\tinkerer.jpg</t>
   </si>
   <si>
     <t>Tinkerer</t>
   </si>
   <si>
-    <t>Remove Tinkerer from the game with 2 time counters on it. When a Generator is activated you may move target Killer to that zone, remove a time counter from Tinkerer. If there are no more time counters on Tinkerer Consume it.</t>
-  </si>
-  <si>
-    <t>Remove Sloppy Butcher from the game with 2 time counters on it. When a Survivor Character has an injury counter placed on them this turn, Exhaust them and remove a time counter from Sloppy Butcher. If there are no more time counters on Sloppy Butcher Consume it.</t>
-  </si>
-  <si>
     <t>Survivor</t>
   </si>
   <si>
-    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\Meg.png</t>
-  </si>
-  <si>
     <t>Meg Thomas, Athlete</t>
   </si>
   <si>
     <t>Survivor Meg</t>
   </si>
   <si>
-    <t>tapicon : MOVE. Activate only in your turn.</t>
-  </si>
-  <si>
-    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\Jake.png</t>
-  </si>
-  <si>
     <t>Jake Park, Saboteur</t>
   </si>
   <si>
-    <t>tapicon : If another target Survivor Character in this zone would become Hooked, tap them instead. Exhaust.</t>
-  </si>
-  <si>
     <t>Survivor Jake</t>
   </si>
   <si>
-    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\Claudette.png</t>
-  </si>
-  <si>
     <t>Claudette Morel, Empathiser</t>
   </si>
   <si>
-    <t>tapicon: Remove an Injury counter from target Survivor in this zone. Activate only in your turn.</t>
-  </si>
-  <si>
     <t>Survivor Claudette</t>
   </si>
   <si>
-    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\Dwight.png</t>
-  </si>
-  <si>
     <t>Dwight Fairfield, Frightened</t>
   </si>
   <si>
-    <t>tapicon: HIDE. Activate only in your turn.</t>
-  </si>
-  <si>
     <t>Survivor Dwight</t>
   </si>
   <si>
@@ -281,9 +242,6 @@
     <t>Sprint burst</t>
   </si>
   <si>
-    <t>Remove Spring Burst from the game with 2 time counters on it. When a Killer enters the same zone a Survivor Character Move target Survivor Character in that zone, remove a time counter from Spring burst, if there are no more time counters on Sprint burst Consume it.</t>
-  </si>
-  <si>
     <t>Boon: Circle of healing</t>
   </si>
   <si>
@@ -296,9 +254,6 @@
     <t>Sabotage</t>
   </si>
   <si>
-    <t>Remove Sabotage from the game with 2 broken counters on it;If a Survivor Character would move to the Hook zone, remove a broken counter from Sabotage instead;If there are no more broken counters on Sabotage Consume it.</t>
-  </si>
-  <si>
     <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\map.jpg</t>
   </si>
   <si>
@@ -434,9 +389,6 @@
     <t>If a Survivor Character moved this turn from the same zone as a Killer Character, Move that Killer Character.</t>
   </si>
   <si>
-    <t>tapicon, Consume 2 cards from your hand: \13\ You may Move Hill Billy then Hill Billy Wounds twice. EXHAUST. Activate only in your turn.</t>
-  </si>
-  <si>
     <t>Draw 2 cards.</t>
   </si>
   <si>
@@ -500,9 +452,6 @@
     <t>C:\Development\board-games\DBD-CCG\Cards\Images2\Killer\final\wraith.jpg</t>
   </si>
   <si>
-    <t>tapicon: Hide. Activate only in your turn.&lt;br/&gt; While in hiding this character has +2 Range.&lt;br/&gt; When this card comes out of hiding Wound a Survivor in this zone.</t>
-  </si>
-  <si>
     <t>Melee Killer Wraith</t>
   </si>
   <si>
@@ -581,12 +530,6 @@
     <t>Nea Karlsson, Urban artist</t>
   </si>
   <si>
-    <t>C:\Development\board-games\DBD-CCG\Cards\Images2\Survivor\final\neakarlsson.png</t>
-  </si>
-  <si>
-    <t>When this character becomes injured, you may Move this character.</t>
-  </si>
-  <si>
     <t>Survivor Nea</t>
   </si>
   <si>
@@ -644,9 +587,6 @@
     <t>When a Killer character enters this zone, end that character's current movement. That character's Range becomes 0 until end of turn. Consume this card.</t>
   </si>
   <si>
-    <t>tapicon: Move a face down card you control to another zone. &lt;br/&gt; When a Trap card you control is turned face up you may pay bloodicon, if you do Wound a Survivor in that trap's zone.</t>
-  </si>
-  <si>
     <t>Hunter's trap</t>
   </si>
   <si>
@@ -665,9 +605,6 @@
     <t>&lt;i&gt;(Play this card face down)&lt;/i&gt; &lt;br/&gt; When a survivor character enters this zone, turn face up. When you do , end that character's current movement and their Range becomes 0 until end of turn.</t>
   </si>
   <si>
-    <t>&lt;i&gt;(Play this card face down)&lt;/i&gt; &lt;br/&gt; When a Survivor character enters this zone, turn face up. If you do move target Killer character to this zone that Killer WOUNDs. Consume.</t>
-  </si>
-  <si>
     <t>Hatch</t>
   </si>
   <si>
@@ -681,6 +618,69 @@
   </si>
   <si>
     <t>Remove target injured Survivor from the game.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt;Generators can't have progress counters added to them as long as Corrupt interventionis on the board;At the start of your Ready phase remove a persistence counter from Corrupt intervention.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt; When a Survivor Character has an injury counter placed on them this turn, Exhaust them and remove a persistence counter from Sloppy Butcher.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt; When a Generator is activated you may move target Killer to that zone, remove a persistence counter from Tinkerer.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt; When a Killer enters the same zone a Survivor Character Move target Survivor Character in that zone, remove a persistence counter from Spring burst.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt; If a Survivor Character would move to the Hook zone, remove a persistence counter from Sabotage instead.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Persistent 2&lt;/i&gt;&lt;br/&gt;When a progress counter is added to a Generator in an adjacent zone to target Killer Character, Exhaust all Survivor Character's in that zone then remove a persistence counter from Fearmonger.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Wound)&lt;/i&gt;&lt;br/&gt;tapicon, Consume 2 cards from your hand:  You may Move Hill Billy then Hill Billy Wounds twice. Exhaust. Activate only in your turn.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Wound)&lt;/i&gt;&lt;br/&gt;tapicon: Move a face down card you control to another zone. &lt;br/&gt; When a Trap card you control is turned face up you may pay bloodicon, if you do Wound a Survivor in that trap's zone.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Wound)&lt;/i&gt;&lt;br/&gt;tapicon: Hide. Activate only in your turn.&lt;br/&gt; While in hiding this character has +2 Range.&lt;br/&gt; When this card comes out of hiding Wound a Survivor in this zone.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Rescue)&lt;/i&gt;&lt;br/&gt;tapicon : If another target Survivor Character in this zone would become Hooked, tap them instead. Exhaust.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Rescue)&lt;/i&gt;&lt;br/&gt;tapicon: Remove an Injury counter from target Survivor in this zone. Activate only in your turn.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Rescue)&lt;/i&gt;&lt;br/&gt;tapicon: Hide. Activate only in your turn.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Rescue)&lt;/i&gt;&lt;br/&gt;When this character becomes injured, you may Move this character.</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\claudette.png</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\dwight.png</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\jake.png</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\meg.png</t>
+  </si>
+  <si>
+    <t>C:\Development\board-games\DBD-CCG\Cards\Images\Survivor\final\nea.png</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Play this card face down)&lt;/i&gt; &lt;br/&gt; When a Survivor character enters this zone, turn face up. If you do move target Killer character to this zone, Wound a Survivor in that zone. Consume.</t>
+  </si>
+  <si>
+    <t>When a Survivor is injured this turn, Move target Killer Character.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;(Move, Rescue)&lt;/i&gt;&lt;br/&gt;tapicon : Move. Activate only in your turn.</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AA4AE0-DCD6-4B27-AC6F-9B859FF4226D}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1098,7 +1098,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1165,7 +1165,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
@@ -1203,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -1212,16 +1212,16 @@
         <v>-1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -1232,14 +1232,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6">
         <v>-1</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1267,28 +1267,28 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -1302,13 +1302,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1320,13 +1320,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -1337,14 +1337,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
       <c r="D9">
         <v>-1</v>
       </c>
@@ -1355,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1387,13 +1387,13 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -1407,13 +1407,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -1425,13 +1425,13 @@
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1460,13 +1460,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1495,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1536,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -1547,13 +1547,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1571,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -1582,13 +1582,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1632,13 +1632,13 @@
         <v>-1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>-1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1">
         <v>-1</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1737,10 +1737,10 @@
         <v>-1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
@@ -1749,7 +1749,7 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1757,13 +1757,13 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -1775,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -1784,7 +1784,7 @@
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -1807,19 +1807,19 @@
         <v>-1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1827,13 +1827,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -1842,19 +1842,19 @@
         <v>-1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1862,13 +1862,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
@@ -1889,7 +1889,7 @@
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -1912,19 +1912,19 @@
         <v>-1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -1947,10 +1947,10 @@
         <v>-1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
@@ -1959,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1967,25 +1967,25 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-      <c r="E27">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
@@ -1994,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>-1</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
         <v>21</v>
@@ -2029,7 +2029,7 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2037,13 +2037,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -2064,7 +2064,7 @@
         <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -2099,7 +2099,7 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -2169,7 +2169,7 @@
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -2198,13 +2198,13 @@
         <v>-1</v>
       </c>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -2233,13 +2233,13 @@
         <v>-1</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2247,13 +2247,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -2262,19 +2262,19 @@
         <v>-1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2306,10 +2306,10 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2317,13 +2317,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2341,10 +2341,10 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2387,13 +2387,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2411,10 +2411,10 @@
         <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2422,13 +2422,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="D40">
         <v>-1</v>
@@ -2440,16 +2440,16 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2457,13 +2457,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -2475,16 +2475,16 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2492,13 +2492,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
@@ -2519,7 +2519,7 @@
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -2542,19 +2542,19 @@
         <v>-1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2562,13 +2562,13 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -2577,19 +2577,19 @@
         <v>-1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2597,13 +2597,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -2615,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H45" t="s">
         <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2632,13 +2632,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -2650,16 +2650,16 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H46" t="s">
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2667,13 +2667,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -2685,16 +2685,16 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2702,13 +2702,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>-1</v>
@@ -2717,19 +2717,19 @@
         <v>-1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2755,16 +2755,16 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2772,13 +2772,13 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2796,10 +2796,10 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2834,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -2842,13 +2842,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2866,10 +2866,10 @@
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -2877,13 +2877,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -2892,19 +2892,19 @@
         <v>-1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -2912,13 +2912,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -2936,10 +2936,10 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -2947,13 +2947,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -2974,7 +2974,7 @@
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2982,13 +2982,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -3006,10 +3006,10 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>-1</v>
@@ -3049,10 +3049,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>-1</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C59">
         <v>-1</v>
@@ -3113,10 +3113,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C60">
         <v>-1</v>
@@ -3131,7 +3131,7 @@
         <v>-1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="H60">
         <v>-1</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
         <v>21</v>
@@ -3179,7 +3179,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I59" xr:uid="{66AA4AE0-DCD6-4B27-AC6F-9B859FF4226D}"/>
+  <autoFilter ref="H1:I61" xr:uid="{66AA4AE0-DCD6-4B27-AC6F-9B859FF4226D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
     <sortCondition ref="J2:J59"/>
   </sortState>
